--- a/me-docs/30.Gioi-han-vung-truy-cap.xlsx
+++ b/me-docs/30.Gioi-han-vung-truy-cap.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B165E58-7329-4B17-B0DB-082E81398192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD31391-5548-4DC1-B694-79CC154A15AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login template" sheetId="1" r:id="rId1"/>
+    <sheet name="validate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>proj\routes\web.php</t>
   </si>
@@ -46,6 +47,18 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>app\Http\Requests\AuthLoginRequest.php</t>
+  </si>
+  <si>
+    <t>Copy from UserRequest.php then edut code</t>
+  </si>
+  <si>
+    <t>resources\views\news\templates\error.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\templates\alert.blade.php</t>
   </si>
 </sst>
 </file>
@@ -402,6 +415,407 @@
         <a:xfrm>
           <a:off x="609600" y="30099000"/>
           <a:ext cx="8771428" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351390</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB902FE-7F0E-2CCC-5451-1A882C2E22F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="8276190" cy="5866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532343</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>18548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C827AE-CB66-F602-42CF-ED66A44229D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="8457143" cy="4019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560914</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DF465B-E3D4-A5FE-0548-C122D282D4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11049000"/>
+          <a:ext cx="8485714" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7CEC38-5D40-8CB3-65A3-375F75DAEFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13144500"/>
+          <a:ext cx="8400000" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37028</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1881F12-F632-07D9-7BC9-624729DA1C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16002000"/>
+          <a:ext cx="8571428" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142019</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>133143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8C3168-CE36-F2F9-6F9F-E312452C11D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18478500"/>
+          <a:ext cx="6847619" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17752</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>28381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF0565C-48C2-4EAC-7099-B43C2DF37C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20574000"/>
+          <a:ext cx="10380952" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>217981</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>94548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7CDB17-47BC-71FB-D4ED-40E48C38BFE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22479000"/>
+          <a:ext cx="8752381" cy="5619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151314</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>84976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6B6E00-12FD-DB7F-27A1-9CA37E0CCDE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28384500"/>
+          <a:ext cx="8685714" cy="5990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
@@ -723,4 +1137,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFD9426-A0AB-4C3B-9B9C-6DE0AE9214BC}">
+  <dimension ref="A2:B150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/30.Gioi-han-vung-truy-cap.xlsx
+++ b/me-docs/30.Gioi-han-vung-truy-cap.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD31391-5548-4DC1-B694-79CC154A15AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA525B7-79DA-4BA2-B30C-6539439E9B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login template" sheetId="1" r:id="rId1"/>
     <sheet name="validate" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>proj\routes\web.php</t>
   </si>
@@ -59,6 +60,15 @@
   </si>
   <si>
     <t>resources\views\news\templates\alert.blade.php</t>
+  </si>
+  <si>
+    <t>config\auth.php</t>
+  </si>
+  <si>
+    <t>app\User.php</t>
+  </si>
+  <si>
+    <t>resources\lang\en\notify.php</t>
   </si>
 </sst>
 </file>
@@ -816,6 +826,319 @@
         <a:xfrm>
           <a:off x="609600" y="28384500"/>
           <a:ext cx="8685714" cy="5990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246857</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5989BD-4CE5-A9DB-4063-7492018E0DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6342857" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142095</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B154FB7-6E86-8292-6E66-958B0E3528B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2286000"/>
+          <a:ext cx="6238095" cy="2771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389562</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49FD62A-8E44-1492-FF0F-94150D8B0A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="7704762" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465448</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7483535-F571-0168-4F22-44847508D583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7620000"/>
+          <a:ext cx="10219048" cy="4047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189409</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>46952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2177875D-DC79-EF38-20A9-F8873DAC7A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12001500"/>
+          <a:ext cx="8723809" cy="5380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66057</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F863B386-2D5C-B1CF-C888-2C26E235CF80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17907000"/>
+          <a:ext cx="4942857" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>570438</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF14885D-9CDF-063D-6E03-784E47CD2EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="8495238" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFD9426-A0AB-4C3B-9B9C-6DE0AE9214BC}">
   <dimension ref="A2:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
@@ -1193,4 +1516,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C3B07-FCC5-4A8F-ACE3-D8484C9AA250}">
+  <dimension ref="A2:B113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/30.Gioi-han-vung-truy-cap.xlsx
+++ b/me-docs/30.Gioi-han-vung-truy-cap.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA525B7-79DA-4BA2-B30C-6539439E9B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1611828-70E1-49D1-B802-9A4421FB8D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login template" sheetId="1" r:id="rId1"/>
     <sheet name="validate" sheetId="2" r:id="rId2"/>
     <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="MethodNotAllowedHttpException" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>proj\routes\web.php</t>
   </si>
@@ -69,6 +70,21 @@
   </si>
   <si>
     <t>resources\lang\en\notify.php</t>
+  </si>
+  <si>
+    <t>Access to post method</t>
+  </si>
+  <si>
+    <t>routes\web.php</t>
+  </si>
+  <si>
+    <t>MethodNotAllowedHttpException redirect to 404</t>
+  </si>
+  <si>
+    <t>app\Exceptions\Handler.php</t>
+  </si>
+  <si>
+    <t>Access http://proj_news.xyz/blog/postLogin</t>
   </si>
 </sst>
 </file>
@@ -1139,6 +1155,275 @@
         <a:xfrm>
           <a:off x="609600" y="5524500"/>
           <a:ext cx="8495238" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8152</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E026659B-7DCB-3EB2-FB61-06470951207F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="10980952" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>131537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A233FD-B3F7-379A-3C3D-244639ABD3EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="11401425" cy="5275037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151390</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF1FA88-3AF1-6711-C939-2F69070C0F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9144000"/>
+          <a:ext cx="8076190" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103848</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69700425-CE9B-FFBC-BED8-83E0C43F6BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="7419048" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151162</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>113905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9856F4-2640-A1E8-90F3-60FA14A8816A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14668500"/>
+          <a:ext cx="9904762" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27733</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C340DD5-68DF-0008-1B23-179A100E70BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18288000"/>
+          <a:ext cx="6733333" cy="3209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C3B07-FCC5-4A8F-ACE3-D8484C9AA250}">
   <dimension ref="A2:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
@@ -1562,4 +1847,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3026B40-B613-4CB4-B838-034350EE5C35}">
+  <dimension ref="A2:B96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="S109" sqref="S109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/30.Gioi-han-vung-truy-cap.xlsx
+++ b/me-docs/30.Gioi-han-vung-truy-cap.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1611828-70E1-49D1-B802-9A4421FB8D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE1C6C-1DD3-4927-A985-F741F4E908C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login template" sheetId="1" r:id="rId1"/>
     <sheet name="validate" sheetId="2" r:id="rId2"/>
     <sheet name="login" sheetId="3" r:id="rId3"/>
     <sheet name="MethodNotAllowedHttpException" sheetId="4" r:id="rId4"/>
+    <sheet name="logout" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>proj\routes\web.php</t>
   </si>
@@ -86,6 +87,15 @@
   <si>
     <t>Access http://proj_news.xyz/blog/postLogin</t>
   </si>
+  <si>
+    <t>Click logout</t>
+  </si>
+  <si>
+    <t>login, redirected to blog page after logined</t>
+  </si>
+  <si>
+    <t>Result after click logout</t>
+  </si>
 </sst>
 </file>
 
@@ -1424,6 +1434,231 @@
         <a:xfrm>
           <a:off x="609600" y="18288000"/>
           <a:ext cx="6733333" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474971</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68C9466-F2E4-30B9-766F-F6865D32ABD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10228571" cy="5561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>132881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F341FC-F787-402D-FF9D-1FAD4919C547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="11200000" cy="3752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>141638</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>75476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A088CC-2DD9-FFC5-E1E8-FC3DF86672FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10477500"/>
+          <a:ext cx="9895238" cy="5790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>142559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960F5AFE-542A-FD49-C03C-EF49F8AEA6A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16764001"/>
+          <a:ext cx="11096625" cy="5286058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>303695</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8D3A68-810A-AE47-9818-5F6001DCA16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22288500"/>
+          <a:ext cx="8838095" cy="5628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1853,7 +2088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3026B40-B613-4CB4-B838-034350EE5C35}">
   <dimension ref="A2:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="S109" sqref="S109"/>
     </sheetView>
   </sheetViews>
@@ -1898,4 +2133,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F5A293-B791-421A-9B55-E57DAA58CB7C}">
+  <dimension ref="A2:B118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="Q144" sqref="Q144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/30.Gioi-han-vung-truy-cap.xlsx
+++ b/me-docs/30.Gioi-han-vung-truy-cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE1C6C-1DD3-4927-A985-F741F4E908C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A812D98-D8A8-4FDE-8529-4EB9C07A909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login template" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="login" sheetId="3" r:id="rId3"/>
     <sheet name="MethodNotAllowedHttpException" sheetId="4" r:id="rId4"/>
     <sheet name="logout" sheetId="5" r:id="rId5"/>
+    <sheet name="check login" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>proj\routes\web.php</t>
   </si>
@@ -96,6 +97,18 @@
   <si>
     <t>Result after click logout</t>
   </si>
+  <si>
+    <t>view code app\Http\Kernel.php</t>
+  </si>
+  <si>
+    <t>app\Http\Middleware\RedirectIfAuthenticated.php</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Access login page after logged in</t>
+  </si>
 </sst>
 </file>
 
@@ -1659,6 +1672,319 @@
         <a:xfrm>
           <a:off x="609600" y="22288500"/>
           <a:ext cx="8838095" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B01A885-04F4-5E39-D23C-38E492C6C8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9200000" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6D1348-F422-E3D4-0F49-2E153DC4030F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="6667501"/>
+          <a:ext cx="11277600" cy="2678546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27428</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC650EE-53F2-1F24-266C-D120BD7B1D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9715500"/>
+          <a:ext cx="9171428" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>465600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>113643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94791450-AC7C-888C-F220-7C6C86A4A6C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12382500"/>
+          <a:ext cx="9000000" cy="5257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5F3350-F80C-03B6-5813-3BC1BFE01997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18288001"/>
+          <a:ext cx="11430000" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>148915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B83B1E7-AFD6-9263-D467-2A34612187EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24384000"/>
+          <a:ext cx="11334750" cy="6054415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446628</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8264C7A-2522-0E0D-1088-E7BB6E8C6D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3048000"/>
+          <a:ext cx="8371428" cy="3276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2139,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F5A293-B791-421A-9B55-E57DAA58CB7C}">
   <dimension ref="A2:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="Q144" sqref="Q144"/>
     </sheetView>
   </sheetViews>
@@ -2179,4 +2505,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F52FF6-9CD8-442F-AB9B-010137F05774}">
+  <dimension ref="A2:B128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/30.Gioi-han-vung-truy-cap.xlsx
+++ b/me-docs/30.Gioi-han-vung-truy-cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A812D98-D8A8-4FDE-8529-4EB9C07A909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38DF8A-DC01-4B45-A115-F61D3D863BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login template" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="MethodNotAllowedHttpException" sheetId="4" r:id="rId4"/>
     <sheet name="logout" sheetId="5" r:id="rId5"/>
     <sheet name="check login" sheetId="6" r:id="rId6"/>
+    <sheet name="admin area" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>proj\routes\web.php</t>
   </si>
@@ -108,6 +109,51 @@
   </si>
   <si>
     <t>Access login page after logged in</t>
+  </si>
+  <si>
+    <t>resources\views\admin\elements\top_nav.blade.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\News\NotifyController.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\notify\no-permission.blade.php</t>
+  </si>
+  <si>
+    <t>php artisan make:middleware PermissionAdmin</t>
+  </si>
+  <si>
+    <t>Create PermissionAdmin middleware</t>
+  </si>
+  <si>
+    <t>app\Http\Middleware\PermissionAdmin.php</t>
+  </si>
+  <si>
+    <t>php artisan make:middleware PermissionMember</t>
+  </si>
+  <si>
+    <t>Create PermissionMember middleware</t>
+  </si>
+  <si>
+    <t>app\Http\Middleware\PermissionMember.php</t>
+  </si>
+  <si>
+    <t>app\Http\Kernel.php</t>
+  </si>
+  <si>
+    <t>Access admin page</t>
+  </si>
+  <si>
+    <t>Access admin page without login</t>
+  </si>
+  <si>
+    <t>check access admin page without login</t>
+  </si>
+  <si>
+    <t>check access admin page by admin</t>
+  </si>
+  <si>
+    <t>Check access no-permission page after login by admin</t>
   </si>
 </sst>
 </file>
@@ -1985,6 +2031,803 @@
         <a:xfrm>
           <a:off x="609600" y="3048000"/>
           <a:ext cx="8371428" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541714</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91BD84E-196F-B2CE-A00B-E97F334C3B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="9685714" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427352</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC3CA7D-1737-F0AA-D11F-809A2D3191DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="10180952" cy="2400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>494019</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>8762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35096E4B-DEE4-9E67-1BE3-7EF68C17400D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9334500"/>
+          <a:ext cx="10247619" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474971</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE96D2D-40F0-0E79-30C7-589A3FE828E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15811500"/>
+          <a:ext cx="10228571" cy="6028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370590</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D335CDAD-AF06-49E1-046A-87B006F3B199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22288500"/>
+          <a:ext cx="7076190" cy="3761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208609</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>76095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A7D0E3-72EF-41C5-AFDB-D9DE63FD0AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26670000"/>
+          <a:ext cx="7523809" cy="838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>141867</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>8809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959D4E71-8AD5-68AD-94A0-2E086FE6955F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26479500"/>
+          <a:ext cx="8066667" cy="5723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246705</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>47524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C11BD29-53E9-49FB-6FC5-F7AE99431ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32766000"/>
+          <a:ext cx="7561905" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332343</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>151690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766B97C2-6D41-196D-78F7-7C220E890339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33909000"/>
+          <a:ext cx="8257143" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141714</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>85381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A112386C-F319-19CC-6448-9833644F36BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="40005000"/>
+          <a:ext cx="9285714" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>589486</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>65976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F51310-896E-70DB-175D-B00F53348209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="43434000"/>
+          <a:ext cx="8514286" cy="5590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17981</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>37429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAA0AEA-462C-16F8-6B5A-915BC2F6099C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="49339500"/>
+          <a:ext cx="8552381" cy="5371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599009</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>18405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090DA2FF-8272-F75B-98DA-144B390E67B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="55435500"/>
+          <a:ext cx="8523809" cy="5161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>562208</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA6FC50-F191-27D4-494D-2ABA574D958D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="60960000"/>
+          <a:ext cx="11535008" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>119137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC60E0A-1534-1D5E-176D-1BD86D2DD3B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="66484500"/>
+          <a:ext cx="11487150" cy="5072137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>55109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C34719F-11CB-3568-C072-EBCD8E56A963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="72390000"/>
+          <a:ext cx="11363325" cy="5770109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500279</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70A60D8-E5B7-A9F3-ABE3-4FA6AECF1803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="78295500"/>
+          <a:ext cx="11473078" cy="5838825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151162</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E5F365-C650-6538-95A8-F7B6650A0CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9904762" cy="2942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,7 +3354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F52FF6-9CD8-442F-AB9B-010137F05774}">
   <dimension ref="A2:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2556,4 +3399,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0695EE97-35D3-46C2-AE13-8E5F88EEC70D}">
+  <dimension ref="A2:B411"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>